--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canfenerci/Dropbox/My Mac (sheldonmemorylab2s-iMac.local)/Desktop/Fluency Task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BE17FA-D172-F74F-8A77-6177781BA79C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C5B89F-A16B-F743-8977-89F322B9CC7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5440" windowWidth="28040" windowHeight="17440" xr2:uid="{99D8F351-01A3-8C4A-B88C-216D7E0B26E9}"/>
+    <workbookView xWindow="2660" yWindow="5960" windowWidth="28040" windowHeight="17440" xr2:uid="{99D8F351-01A3-8C4A-B88C-216D7E0B26E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Slide1.png</t>
   </si>
@@ -54,6 +54,21 @@
   </si>
   <si>
     <t>INS</t>
+  </si>
+  <si>
+    <t>Consent.png</t>
+  </si>
+  <si>
+    <t>KEYS</t>
+  </si>
+  <si>
+    <t>['y', 'n']</t>
+  </si>
+  <si>
+    <t>['space']</t>
+  </si>
+  <si>
+    <t>['g']</t>
   </si>
 </sst>
 </file>
@@ -406,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754DA85F-E50F-A341-996C-6DE2EA12809A}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -418,40 +433,64 @@
       <c r="A1" t="s">
         <v>6</v>
       </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canfenerci/Dropbox/My Mac (sheldonmemorylab2s-iMac.local)/Desktop/Fluency Task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C5B89F-A16B-F743-8977-89F322B9CC7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23016811-0C72-8243-A965-F307EB46DFAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2660" yWindow="5960" windowWidth="28040" windowHeight="17440" xr2:uid="{99D8F351-01A3-8C4A-B88C-216D7E0B26E9}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,18 +439,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canfenerci/Dropbox/My Mac (sheldonmemorylab2s-iMac.local)/Desktop/Fluency Task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23016811-0C72-8243-A965-F307EB46DFAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203D4986-C277-B543-840A-50745572C4A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2660" yWindow="5960" windowWidth="28040" windowHeight="17440" xr2:uid="{99D8F351-01A3-8C4A-B88C-216D7E0B26E9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Slide1.png</t>
   </si>
@@ -54,21 +54,6 @@
   </si>
   <si>
     <t>INS</t>
-  </si>
-  <si>
-    <t>Consent.png</t>
-  </si>
-  <si>
-    <t>KEYS</t>
-  </si>
-  <si>
-    <t>['y', 'n']</t>
-  </si>
-  <si>
-    <t>['space']</t>
-  </si>
-  <si>
-    <t>['g']</t>
   </si>
 </sst>
 </file>
@@ -104,9 +89,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,76 +405,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754DA85F-E50F-A341-996C-6DE2EA12809A}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
         <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canfenerci/Dropbox/My Mac (sheldonmemorylab2s-iMac.local)/Desktop/Fluency Task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203D4986-C277-B543-840A-50745572C4A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6684CB-B1AE-2D49-BC16-112B9C4CE76C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="5960" windowWidth="28040" windowHeight="17440" xr2:uid="{99D8F351-01A3-8C4A-B88C-216D7E0B26E9}"/>
+    <workbookView xWindow="16500" yWindow="4820" windowWidth="28040" windowHeight="17440" xr2:uid="{99D8F351-01A3-8C4A-B88C-216D7E0B26E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,27 +33,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Slide1.png</t>
-  </si>
-  <si>
-    <t>Slide2.png</t>
-  </si>
-  <si>
-    <t>Slide3.png</t>
-  </si>
-  <si>
-    <t>Slide4.png</t>
-  </si>
-  <si>
-    <t>Slide5.png</t>
-  </si>
-  <si>
-    <t>Slide6.png</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>INS</t>
+  </si>
+  <si>
+    <t>Instructions1.png</t>
+  </si>
+  <si>
+    <t>Instructions2.png</t>
+  </si>
+  <si>
+    <t>Instructions3.png</t>
+  </si>
+  <si>
+    <t>Instructions4.png</t>
+  </si>
+  <si>
+    <t>Instructions5.png</t>
   </si>
 </sst>
 </file>
@@ -405,46 +402,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754DA85F-E50F-A341-996C-6DE2EA12809A}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canfenerci/Dropbox/My Mac (sheldonmemorylab2s-iMac.local)/Desktop/Fluency Task/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adkinsty/files/experiments/fluency-task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6684CB-B1AE-2D49-BC16-112B9C4CE76C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539804EF-F190-F74F-8C31-65E0DACB0A2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16500" yWindow="4820" windowWidth="28040" windowHeight="17440" xr2:uid="{99D8F351-01A3-8C4A-B88C-216D7E0B26E9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{99D8F351-01A3-8C4A-B88C-216D7E0B26E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>INS</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Instructions4.png</t>
-  </si>
-  <si>
-    <t>Instructions5.png</t>
   </si>
 </sst>
 </file>
@@ -402,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754DA85F-E50F-A341-996C-6DE2EA12809A}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,11 +432,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
